--- a/HospedagemV1.xlsx
+++ b/HospedagemV1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arquivos Pessoais\Viagens\20250912 - Valencia_Lisboa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arquivos Pessoais\Viagens\202509_Espanha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8345620C-845A-4800-9801-292B8238563A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hospedagem" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hospedagem!$A$1:$I$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Transfer  Voucher'!$A$1:$K$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="160">
   <si>
     <t>Período</t>
   </si>
@@ -422,9 +421,6 @@
     <t>Louvre</t>
   </si>
   <si>
-    <t>Voucher</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
@@ -448,12 +444,6 @@
   </si>
   <si>
     <t>13:00h / 11:00h</t>
-  </si>
-  <si>
-    <t>Disney</t>
-  </si>
-  <si>
-    <t>Torre com passeio do barco</t>
   </si>
   <si>
     <t>– paris – notre dame, panteon, jardim de Luxemburgo, sorbone, hotel des invalides, ponte alexandew 3, place de la concorde, petit palais, grand palais, champs elysees, arc do triumphe</t>
@@ -579,11 +569,36 @@
 - TIRZA: verificar se seguem a barcelona</t>
     </r>
   </si>
+  <si>
+    <t>Voucher - Ingressos para atrações</t>
+  </si>
+  <si>
+    <t>Paris: Cruzeiro de 1 hora no Sena com partida da Torre Eiffel</t>
+  </si>
+  <si>
+    <t>20:00 ou 21:00 - Á definir 
+Partida a cada 30min</t>
+  </si>
+  <si>
+    <t>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris
+Disney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Michel - 6:30
+Disney - 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris: Torre Eiffel 2º andar </t>
+  </si>
+  <si>
+    <t>Retorno Valencia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -984,9 +999,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1027,12 +1039,90 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1054,9 +1144,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,80 +1171,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1440,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1465,23 +1480,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1510,36 +1525,36 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+    <row r="3" spans="1:11" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
         <v>45913</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>45915</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <v>2934.38</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="49">
         <v>488</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="48" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="53" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1576,38 +1591,38 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+    <row r="5" spans="1:11" s="54" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
         <f t="shared" ref="A5:A11" si="0">B4</f>
         <v>45920</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>45921</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <v>1236</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="49">
         <f>E5/6.6</f>
         <v>187.27272727272728</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="48" t="s">
+      <c r="G5" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="53" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1645,71 +1660,71 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+    <row r="7" spans="1:11" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
         <f t="shared" si="0"/>
         <v>45924</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>45773</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="48">
         <v>2182.02</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="49">
         <v>362.88</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="48" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+    <row r="8" spans="1:11" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
         <f t="shared" si="0"/>
         <v>45773</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>45928</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="48">
         <v>1683.66</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="49">
         <v>280</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="48" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="53" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1781,38 +1796,38 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+    <row r="11" spans="1:11" s="54" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
         <f t="shared" si="0"/>
         <v>45932</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>45934</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="55">
         <v>2645.75</v>
       </c>
-      <c r="F11" s="50" t="e">
+      <c r="F11" s="49" t="e">
         <f>E11/F14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="48" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="53" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1844,11 +1859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B1E134-49A7-4096-AFF2-8F663929501B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,7 +1872,7 @@
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
@@ -1890,16 +1905,16 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1937,10 +1952,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="86" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="32"/>
@@ -1970,8 +1985,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="33"/>
       <c r="D5" s="7" t="s">
         <v>70</v>
@@ -1999,8 +2014,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7" t="s">
         <v>71</v>
@@ -2028,10 +2043,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="33"/>
       <c r="D7" s="7" t="s">
         <v>69</v>
@@ -2059,8 +2074,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="33"/>
       <c r="D8" s="7" t="s">
         <v>70</v>
@@ -2088,8 +2103,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="33"/>
       <c r="D9" s="7" t="s">
         <v>71</v>
@@ -2117,10 +2132,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="33"/>
       <c r="D10" s="7" t="s">
         <v>69</v>
@@ -2148,8 +2163,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="33"/>
       <c r="D11" s="7" t="s">
         <v>70</v>
@@ -2177,8 +2192,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="33"/>
       <c r="D12" s="7" t="s">
         <v>71</v>
@@ -2206,10 +2221,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="33"/>
       <c r="D13" s="7" t="s">
         <v>69</v>
@@ -2237,8 +2252,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="33"/>
       <c r="D14" s="7" t="s">
         <v>70</v>
@@ -2266,8 +2281,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="34"/>
       <c r="D15" s="7" t="s">
         <v>71</v>
@@ -2298,24 +2313,24 @@
       <c r="A17" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="66"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="85" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -2336,21 +2351,21 @@
       <c r="H18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="92">
         <v>1231.8800000000001</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="94">
         <f>(I18*6.237)+(I18*6.237)*1.1%</f>
         <v>7767.7511511600014</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="96">
         <f>J18/6</f>
         <v>1294.6251918600003</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="36" t="s">
         <v>117</v>
       </c>
@@ -2369,9 +2384,9 @@
       <c r="H19" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="73"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="97"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" s="28"/>
@@ -2382,16 +2397,16 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -2411,15 +2426,15 @@
         <v>74</v>
       </c>
       <c r="I22" s="20">
-        <v>0</v>
+        <v>133.44</v>
       </c>
       <c r="J22" s="24">
-        <f>(I22*6.237)+(I22*6.237)*1.1%</f>
-        <v>0</v>
+        <f>(I22*6.637)+(I22*6.637)*3.5%</f>
+        <v>916.63872479999998</v>
       </c>
       <c r="K22" s="16">
         <f>J22/6</f>
-        <v>0</v>
+        <v>152.77312079999999</v>
       </c>
       <c r="L22" t="s">
         <v>101</v>
@@ -2446,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="24">
-        <f>(I23*6.237)+(I23*6.237)*1.1%</f>
+        <f t="shared" ref="J23:J25" si="0">(I23*6.637)+(I23*6.637)*3.5%</f>
         <v>0</v>
       </c>
       <c r="K23" s="16">
@@ -2478,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="24">
-        <f>(I24*6.237)+(I24*6.237)*1.1%</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="16">
@@ -2510,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="24">
-        <f>(I25*6.237)+(I25*6.237)*1.1%</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="16">
@@ -2522,18 +2537,13 @@
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="57"/>
+      <c r="G35" s="56"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:K25">
+  <sortState ref="A22:K25">
     <sortCondition ref="E22:E25"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="B18:B19"/>
@@ -2542,408 +2552,413 @@
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" style="80" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="81" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="78"/>
-    <col min="7" max="7" width="10.7109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="78"/>
+    <col min="1" max="1" width="47.140625" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="58"/>
+    <col min="7" max="7" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="82"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="83">
+      <c r="A3" s="63">
         <v>45913</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="82" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="62" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+      <c r="A4" s="63">
         <v>45914</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="84"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85">
+      <c r="A5" s="65">
         <v>45915</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="87">
-        <f>A5+1</f>
+      <c r="A6" s="67">
+        <f t="shared" ref="A6:A24" si="0">A5+1</f>
         <v>45916</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+    </row>
+    <row r="7" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="67">
+        <f t="shared" si="0"/>
+        <v>45917</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="70" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="67">
+        <f t="shared" si="0"/>
+        <v>45918</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+    </row>
+    <row r="9" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <f t="shared" si="0"/>
+        <v>45919</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="71">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="63">
+        <f t="shared" si="0"/>
+        <v>45920</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
+        <f t="shared" si="0"/>
+        <v>45921</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-    </row>
-    <row r="7" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
-        <f>A6+1</f>
-        <v>45917</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="90" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="87">
-        <f>A7+1</f>
-        <v>45918</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="88" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="71">
+        <v>9.0277777777777776E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="67">
+        <f t="shared" si="0"/>
+        <v>45922</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="71">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="67">
+        <f t="shared" si="0"/>
+        <v>45923</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+    </row>
+    <row r="14" spans="1:5" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="67">
+        <f t="shared" si="0"/>
+        <v>45924</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-    </row>
-    <row r="9" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="87">
-        <f>A8+1</f>
-        <v>45919</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="91">
-        <v>0.14583333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
-        <f>A9+1</f>
-        <v>45920</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-    </row>
-    <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
-        <f>A10+1</f>
-        <v>45921</v>
-      </c>
-      <c r="B11" s="86" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
+        <f t="shared" si="0"/>
+        <v>45925</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="67">
+        <f t="shared" si="0"/>
+        <v>45926</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="63">
+        <f t="shared" si="0"/>
+        <v>45927</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+    </row>
+    <row r="18" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="63">
+        <f t="shared" si="0"/>
+        <v>45928</v>
+      </c>
+      <c r="B18" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="91">
-        <v>9.0277777777777776E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="87">
-        <f>A11+1</f>
-        <v>45922</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="91">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="87">
-        <f>A12+1</f>
-        <v>45923</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-    </row>
-    <row r="14" spans="1:5" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="87">
-        <f>A13+1</f>
-        <v>45924</v>
-      </c>
-      <c r="B14" s="94" t="s">
+      <c r="C18" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="67">
+        <f t="shared" si="0"/>
+        <v>45929</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+    </row>
+    <row r="20" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="67">
+        <f t="shared" si="0"/>
+        <v>45930</v>
+      </c>
+      <c r="B20" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="93">
-        <f>A14+1</f>
-        <v>45925</v>
-      </c>
-      <c r="B15" s="86" t="s">
+      <c r="C20" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67">
+        <f t="shared" si="0"/>
+        <v>45931</v>
+      </c>
+      <c r="B21" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="94" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="82" t="s">
+      <c r="C21" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="67">
+        <f t="shared" si="0"/>
+        <v>45932</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="67">
+        <f t="shared" si="0"/>
+        <v>45933</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="87">
-        <f>A15+1</f>
-        <v>45926</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
-        <f>A16+1</f>
-        <v>45927</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-    </row>
-    <row r="18" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
-        <f>A17+1</f>
-        <v>45928</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-    </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="87">
-        <f>A18+1</f>
-        <v>45929</v>
-      </c>
-      <c r="B19" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-    </row>
-    <row r="20" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="87">
-        <f>A19+1</f>
-        <v>45930</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-    </row>
-    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="87">
-        <f>A20+1</f>
-        <v>45931</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="87">
-        <f>A21+1</f>
-        <v>45932</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="87">
-        <f>A22+1</f>
-        <v>45933</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
+        <f t="shared" si="0"/>
+        <v>45934</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="71">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="83">
-        <f>A23+1</f>
-        <v>45934</v>
-      </c>
-      <c r="B24" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="91">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="91">
+      <c r="A27" s="73"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="71">
         <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
+      <c r="A28" s="73"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="80" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2954,7 +2969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E64282-D8ED-4087-A79E-E0AC3B72CEC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3100,20 +3115,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8927FBB-0865-4D23-A248-2C31E3808ABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -3126,17 +3141,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="23" t="s">
         <v>84</v>
       </c>
@@ -3149,17 +3164,17 @@
         <v>77</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3195,10 +3210,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="86" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3210,7 +3225,7 @@
       <c r="E4" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="99" t="s">
         <v>115</v>
       </c>
       <c r="G4" s="15">
@@ -3232,8 +3247,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
@@ -3243,7 +3258,7 @@
       <c r="E5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="15">
         <v>0.5625</v>
       </c>
@@ -3264,47 +3279,47 @@
       <c r="K6" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="A9" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>6</v>
@@ -3314,71 +3329,183 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="43">
-        <v>0.41666666666666669</v>
+      <c r="D11" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="E11" s="12">
-        <f>F11/6</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12">
         <v>150</v>
       </c>
       <c r="G11" s="16">
-        <f>F11*6.6</f>
+        <f t="shared" ref="G11:G13" si="0">F11*6.6</f>
         <v>990</v>
       </c>
       <c r="H11" s="35">
-        <f>G11*0.0638</f>
+        <f t="shared" ref="H11:H13" si="1">G11*0.0638</f>
         <v>63.161999999999999</v>
       </c>
-      <c r="I11" s="44">
-        <f>H11+G11</f>
+      <c r="I11" s="43">
+        <f t="shared" ref="I11:I13" si="2">H11+G11</f>
         <v>1053.162</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="44" t="s">
         <v>74</v>
       </c>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="101">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" ref="E11:E13" si="3">F12/6</f>
+        <v>25</v>
+      </c>
+      <c r="F12" s="12">
+        <v>150</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="H12" s="35">
+        <f t="shared" si="1"/>
+        <v>63.161999999999999</v>
+      </c>
+      <c r="I12" s="43">
+        <f t="shared" si="2"/>
+        <v>1053.162</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>45918</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="45"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
+      <c r="B13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>150</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="H13" s="35">
+        <f t="shared" si="1"/>
+        <v>63.161999999999999</v>
+      </c>
+      <c r="I13" s="43">
+        <f t="shared" si="2"/>
+        <v>1053.162</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>45919</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="101">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>150</v>
+      </c>
+      <c r="G14" s="16">
+        <f>F14*6.6</f>
+        <v>990</v>
+      </c>
+      <c r="H14" s="35">
+        <f>G14*0.0638</f>
+        <v>63.161999999999999</v>
+      </c>
+      <c r="I14" s="43">
+        <f>H14+G14</f>
+        <v>1053.162</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K15" s="21">
-        <f>I11/6*4</f>
+      <c r="A15" s="7">
+        <v>45920</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="44"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="21">
+        <f>I14/6*4</f>
         <v>702.10800000000006</v>
       </c>
     </row>
@@ -3397,7 +3524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAECBE10-769C-4765-AA13-F9A1F6491428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3419,10 +3546,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="82"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>

--- a/HospedagemV1.xlsx
+++ b/HospedagemV1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hospedagem" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Planilha1" sheetId="6" r:id="rId4"/>
     <sheet name="Transfer  Voucher" sheetId="5" r:id="rId5"/>
     <sheet name="Planilha2" sheetId="7" r:id="rId6"/>
+    <sheet name="Acerto dos passeios" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Passagens!$A$22:$K$25</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="167">
   <si>
     <t>Período</t>
   </si>
@@ -416,9 +417,6 @@
   </si>
   <si>
     <t>ORY - PARIS - ORY(Airport)</t>
-  </si>
-  <si>
-    <t>Louvre</t>
   </si>
   <si>
     <t>Local</t>
@@ -573,15 +571,8 @@
     <t>Voucher - Ingressos para atrações</t>
   </si>
   <si>
-    <t>Paris: Cruzeiro de 1 hora no Sena com partida da Torre Eiffel</t>
-  </si>
-  <si>
     <t>20:00 ou 21:00 - Á definir 
 Partida a cada 30min</t>
-  </si>
-  <si>
-    <t>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris
-Disney</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Michel - 6:30
@@ -589,10 +580,41 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Paris: Torre Eiffel 2º andar </t>
-  </si>
-  <si>
     <t>Retorno Valencia</t>
+  </si>
+  <si>
+    <t>Acertado</t>
+  </si>
+  <si>
+    <t>Translado Paris</t>
+  </si>
+  <si>
+    <t>Freitas</t>
+  </si>
+  <si>
+    <t>Raposo</t>
+  </si>
+  <si>
+    <t>Atividade</t>
+  </si>
+  <si>
+    <t>Valor Total R$</t>
+  </si>
+  <si>
+    <t>Valor individual R$</t>
+  </si>
+  <si>
+    <t>Paris: Torre Eiffel 2º andar (4 pessoas)</t>
+  </si>
+  <si>
+    <t>Paris: Cruzeiro de 1 hora no Sena com partida da Torre Eiffel (todos)</t>
+  </si>
+  <si>
+    <t>Louvre (todos)</t>
+  </si>
+  <si>
+    <t>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris (3 pessoas)
+Disney</t>
   </si>
 </sst>
 </file>
@@ -887,7 +909,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1114,36 +1136,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,8 +1196,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1480,23 +1508,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1613,11 +1641,11 @@
         <v>187.27272727272728</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="51"/>
       <c r="I5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>18</v>
@@ -1905,16 +1933,16 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2351,14 +2379,14 @@
       <c r="H18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="92">
+      <c r="I18" s="93">
         <v>1231.8800000000001</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="95">
         <f>(I18*6.237)+(I18*6.237)*1.1%</f>
         <v>7767.7511511600014</v>
       </c>
-      <c r="K18" s="96">
+      <c r="K18" s="97">
         <f>J18/6</f>
         <v>1294.6251918600003</v>
       </c>
@@ -2384,9 +2412,9 @@
       <c r="H19" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="93"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="97"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="98"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" s="28"/>
@@ -2397,16 +2425,16 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -2544,6 +2572,11 @@
     <sortCondition ref="E22:E25"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="B18:B19"/>
@@ -2552,11 +2585,6 @@
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2653,10 +2681,10 @@
         <v>45916</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -2667,7 +2695,7 @@
         <v>45917</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="66" t="s">
         <v>41</v>
@@ -2683,10 +2711,10 @@
         <v>45918</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
@@ -2697,7 +2725,7 @@
         <v>45919</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="66" t="s">
         <v>42</v>
@@ -2713,10 +2741,10 @@
         <v>45920</v>
       </c>
       <c r="B10" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="66" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>139</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -2727,10 +2755,10 @@
         <v>45921</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="71">
@@ -2762,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -2773,10 +2801,10 @@
         <v>45924</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="62" t="s">
@@ -2789,10 +2817,10 @@
         <v>45925</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="62" t="s">
@@ -2805,7 +2833,7 @@
         <v>45926</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="62"/>
@@ -2833,7 +2861,7 @@
         <v>45928</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>44</v>
@@ -2847,7 +2875,7 @@
         <v>45929</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="66" t="s">
         <v>45</v>
@@ -2861,7 +2889,7 @@
         <v>45930</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>46</v>
@@ -2875,7 +2903,7 @@
         <v>45931</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>47</v>
@@ -2889,7 +2917,7 @@
         <v>45932</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="62"/>
@@ -2901,7 +2929,7 @@
         <v>45933</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="62"/>
@@ -3121,8 +3149,8 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,24 +3162,25 @@
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
     <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
       <c r="J1" s="23" t="s">
         <v>84</v>
       </c>
@@ -3164,17 +3193,17 @@
         <v>77</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3225,7 +3254,7 @@
       <c r="E4" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="100" t="s">
         <v>115</v>
       </c>
       <c r="G4" s="15">
@@ -3258,7 +3287,7 @@
       <c r="E5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="100"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="15">
         <v>0.5625</v>
       </c>
@@ -3279,47 +3308,47 @@
       <c r="K6" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
+      <c r="A9" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>6</v>
@@ -3334,31 +3363,32 @@
         <v>45915</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E11" s="12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F11" s="12">
-        <v>150</v>
+        <f>E11*6</f>
+        <v>114</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" ref="G11:G13" si="0">F11*6.6</f>
-        <v>990</v>
+        <v>752.4</v>
       </c>
       <c r="H11" s="35">
         <f t="shared" ref="H11:H13" si="1">G11*0.0638</f>
-        <v>63.161999999999999</v>
+        <v>48.003119999999996</v>
       </c>
       <c r="I11" s="43">
         <f t="shared" ref="I11:I13" si="2">H11+G11</f>
-        <v>1053.162</v>
+        <v>800.40311999999994</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>112</v>
@@ -3373,19 +3403,19 @@
         <v>45917</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="82">
         <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="12">
-        <f t="shared" ref="E11:E13" si="3">F12/6</f>
         <v>25</v>
       </c>
       <c r="F12" s="12">
+        <f>E12*6</f>
         <v>150</v>
       </c>
       <c r="G12" s="16">
@@ -3406,38 +3436,41 @@
       <c r="K12" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L12" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45918</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F13" s="12">
-        <v>150</v>
+        <f>E13*3</f>
+        <v>390</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>2574</v>
       </c>
       <c r="H13" s="35">
         <f t="shared" si="1"/>
-        <v>63.161999999999999</v>
+        <v>164.22119999999998</v>
       </c>
       <c r="I13" s="43">
         <f t="shared" si="2"/>
-        <v>1053.162</v>
+        <v>2738.2212</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>112</v>
@@ -3447,36 +3480,37 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45919</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="82">
         <v>0.54166666666666663</v>
       </c>
       <c r="E14" s="12">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F14" s="12">
-        <v>150</v>
+        <f>E14*4</f>
+        <v>260</v>
       </c>
       <c r="G14" s="16">
         <f>F14*6.6</f>
-        <v>990</v>
+        <v>1716</v>
       </c>
       <c r="H14" s="35">
         <f>G14*0.0638</f>
-        <v>63.161999999999999</v>
+        <v>109.48079999999999</v>
       </c>
       <c r="I14" s="43">
         <f>H14+G14</f>
-        <v>1053.162</v>
+        <v>1825.4808</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>112</v>
@@ -3491,10 +3525,10 @@
         <v>45920</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="101"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="16"/>
@@ -3504,10 +3538,7 @@
       <c r="K15" s="44"/>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="21">
-        <f>I14/6*4</f>
-        <v>702.10800000000006</v>
-      </c>
+      <c r="K18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3546,10 +3577,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3906,4 +3937,201 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="103">
+        <f>'Transfer  Voucher'!I4*2</f>
+        <v>285.39361872695207</v>
+      </c>
+      <c r="C2" s="103">
+        <f>B2/6</f>
+        <v>47.565603121158681</v>
+      </c>
+      <c r="D2" s="104">
+        <f>E2*6</f>
+        <v>2003.7714285714287</v>
+      </c>
+      <c r="E2" s="104">
+        <f>(C2*6.6)+(C2*6.6*0.0638)</f>
+        <v>333.9619047619048</v>
+      </c>
+      <c r="F2" s="104">
+        <f>E2*4</f>
+        <v>1335.8476190476192</v>
+      </c>
+      <c r="G2" s="104">
+        <f>E2*2</f>
+        <v>667.92380952380961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="str">
+        <f>'Transfer  Voucher'!B11</f>
+        <v>Paris: Cruzeiro de 1 hora no Sena com partida da Torre Eiffel (todos)</v>
+      </c>
+      <c r="B3" s="103">
+        <f>'Transfer  Voucher'!F11</f>
+        <v>114</v>
+      </c>
+      <c r="C3" s="103">
+        <f t="shared" ref="C3:C6" si="0">B3/6</f>
+        <v>19</v>
+      </c>
+      <c r="D3" s="104">
+        <f t="shared" ref="D3:D6" si="1">E3*6</f>
+        <v>800.40311999999994</v>
+      </c>
+      <c r="E3" s="104">
+        <f t="shared" ref="E3:E6" si="2">(C3*6.6)+(C3*6.6*0.0638)</f>
+        <v>133.40052</v>
+      </c>
+      <c r="F3" s="104">
+        <f t="shared" ref="F3:F6" si="3">E3*4</f>
+        <v>533.60208</v>
+      </c>
+      <c r="G3" s="104">
+        <f t="shared" ref="G3:G6" si="4">E3*2</f>
+        <v>266.80104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="str">
+        <f>'Transfer  Voucher'!B12</f>
+        <v>Louvre (todos)</v>
+      </c>
+      <c r="B4" s="103">
+        <f>'Transfer  Voucher'!F12</f>
+        <v>150</v>
+      </c>
+      <c r="C4" s="103">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D4" s="104">
+        <f t="shared" si="1"/>
+        <v>1053.1619999999998</v>
+      </c>
+      <c r="E4" s="104">
+        <f t="shared" si="2"/>
+        <v>175.52699999999999</v>
+      </c>
+      <c r="F4" s="104">
+        <f t="shared" si="3"/>
+        <v>702.10799999999995</v>
+      </c>
+      <c r="G4" s="104">
+        <f t="shared" si="4"/>
+        <v>351.05399999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="str">
+        <f>'Transfer  Voucher'!B13</f>
+        <v>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris (3 pessoas)
+Disney</v>
+      </c>
+      <c r="B5" s="103">
+        <f>'Transfer  Voucher'!F13</f>
+        <v>390</v>
+      </c>
+      <c r="C5" s="103">
+        <f>B5/3</f>
+        <v>130</v>
+      </c>
+      <c r="D5" s="104">
+        <f>E5*3</f>
+        <v>2738.2212</v>
+      </c>
+      <c r="E5" s="104">
+        <f t="shared" si="2"/>
+        <v>912.74040000000002</v>
+      </c>
+      <c r="F5" s="104">
+        <f>E5*1</f>
+        <v>912.74040000000002</v>
+      </c>
+      <c r="G5" s="104">
+        <f t="shared" si="4"/>
+        <v>1825.4808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="str">
+        <f>'Transfer  Voucher'!B14</f>
+        <v>Paris: Torre Eiffel 2º andar (4 pessoas)</v>
+      </c>
+      <c r="B6" s="103">
+        <f>'Transfer  Voucher'!F14</f>
+        <v>260</v>
+      </c>
+      <c r="C6" s="103">
+        <f>B6/4</f>
+        <v>65</v>
+      </c>
+      <c r="D6" s="104">
+        <f>E6*4</f>
+        <v>1825.4808</v>
+      </c>
+      <c r="E6" s="104">
+        <f t="shared" si="2"/>
+        <v>456.37020000000001</v>
+      </c>
+      <c r="F6" s="104">
+        <f>E6*4</f>
+        <v>1825.4808</v>
+      </c>
+      <c r="G6" s="104">
+        <f>E6*0</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HospedagemV1.xlsx
+++ b/HospedagemV1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hospedagem" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Planilha1" sheetId="6" r:id="rId4"/>
     <sheet name="Transfer  Voucher" sheetId="5" r:id="rId5"/>
     <sheet name="Planilha2" sheetId="7" r:id="rId6"/>
-    <sheet name="Acerto dos passeios" sheetId="8" r:id="rId7"/>
+    <sheet name="Acerto dos passeios e TREM" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Passagens!$A$22:$K$25</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="173">
   <si>
     <t>Período</t>
   </si>
@@ -613,8 +613,26 @@
     <t>Louvre (todos)</t>
   </si>
   <si>
-    <t>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris (3 pessoas)
-Disney</t>
+    <t>PASSAGENS</t>
+  </si>
+  <si>
+    <t>PASSEIOS</t>
+  </si>
+  <si>
+    <t>Acerto</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris (3 pessoas) + 
+Disney 3 pessoas - Tirza irá comprar</t>
+  </si>
+  <si>
+    <t>A ver</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -741,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,6 +811,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +939,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1139,69 +1169,88 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1508,23 +1557,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1933,16 +1982,16 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1980,10 +2029,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="90" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="32"/>
@@ -2013,8 +2062,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="87"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="33"/>
       <c r="D5" s="7" t="s">
         <v>70</v>
@@ -2042,8 +2091,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7" t="s">
         <v>71</v>
@@ -2071,10 +2120,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="87"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="33"/>
       <c r="D7" s="7" t="s">
         <v>69</v>
@@ -2102,8 +2151,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="33"/>
       <c r="D8" s="7" t="s">
         <v>70</v>
@@ -2131,8 +2180,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="87"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="33"/>
       <c r="D9" s="7" t="s">
         <v>71</v>
@@ -2160,10 +2209,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="87"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="33"/>
       <c r="D10" s="7" t="s">
         <v>69</v>
@@ -2191,8 +2240,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="33"/>
       <c r="D11" s="7" t="s">
         <v>70</v>
@@ -2220,8 +2269,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="33"/>
       <c r="D12" s="7" t="s">
         <v>71</v>
@@ -2249,10 +2298,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="33"/>
       <c r="D13" s="7" t="s">
         <v>69</v>
@@ -2280,8 +2329,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="33"/>
       <c r="D14" s="7" t="s">
         <v>70</v>
@@ -2309,8 +2358,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="34"/>
       <c r="D15" s="7" t="s">
         <v>71</v>
@@ -2341,24 +2390,24 @@
       <c r="A17" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="89" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -2379,21 +2428,21 @@
       <c r="H18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="93">
+      <c r="I18" s="96">
         <v>1231.8800000000001</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="98">
         <f>(I18*6.237)+(I18*6.237)*1.1%</f>
         <v>7767.7511511600014</v>
       </c>
-      <c r="K18" s="97">
+      <c r="K18" s="100">
         <f>J18/6</f>
         <v>1294.6251918600003</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="36" t="s">
         <v>117</v>
       </c>
@@ -2412,9 +2461,9 @@
       <c r="H19" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="94"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="98"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="101"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" s="28"/>
@@ -2425,16 +2474,16 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -2572,11 +2621,6 @@
     <sortCondition ref="E22:E25"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="B18:B19"/>
@@ -2585,6 +2629,11 @@
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3149,7 +3198,7 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3170,17 +3219,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="23" t="s">
         <v>84</v>
       </c>
@@ -3193,17 +3242,17 @@
         <v>77</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3239,10 +3288,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="90" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3254,7 +3303,7 @@
       <c r="E4" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="103" t="s">
         <v>115</v>
       </c>
       <c r="G4" s="15">
@@ -3276,8 +3325,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
@@ -3287,7 +3336,7 @@
       <c r="E5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="101"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="15">
         <v>0.5625</v>
       </c>
@@ -3308,19 +3357,19 @@
       <c r="K6" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3440,12 +3489,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45918</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>8</v>
@@ -3577,10 +3626,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3941,196 +3990,295 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+    </row>
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B2" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C2" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D2" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E2" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F2" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G2" s="109" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="H2" s="110" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="103">
+      <c r="B3" s="84">
         <f>'Transfer  Voucher'!I4*2</f>
         <v>285.39361872695207</v>
       </c>
-      <c r="C2" s="103">
-        <f>B2/6</f>
+      <c r="C3" s="84">
+        <f>B3/6</f>
         <v>47.565603121158681</v>
       </c>
-      <c r="D2" s="104">
-        <f>E2*6</f>
+      <c r="D3" s="85">
+        <f>E3*6</f>
         <v>2003.7714285714287</v>
       </c>
-      <c r="E2" s="104">
-        <f>(C2*6.6)+(C2*6.6*0.0638)</f>
+      <c r="E3" s="85">
+        <f>(C3*6.6)+(C3*6.6*0.0638)</f>
         <v>333.9619047619048</v>
       </c>
-      <c r="F2" s="104">
-        <f>E2*4</f>
+      <c r="F3" s="85">
+        <f>E3*4</f>
         <v>1335.8476190476192</v>
       </c>
-      <c r="G2" s="104">
-        <f>E2*2</f>
+      <c r="G3" s="85">
+        <f>E3*2</f>
         <v>667.92380952380961</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="str">
+      <c r="H3" s="105"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="str">
         <f>'Transfer  Voucher'!B11</f>
         <v>Paris: Cruzeiro de 1 hora no Sena com partida da Torre Eiffel (todos)</v>
       </c>
-      <c r="B3" s="103">
+      <c r="B4" s="12">
         <f>'Transfer  Voucher'!F11</f>
         <v>114</v>
       </c>
-      <c r="C3" s="103">
-        <f t="shared" ref="C3:C6" si="0">B3/6</f>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:C5" si="0">B4/6</f>
         <v>19</v>
       </c>
-      <c r="D3" s="104">
-        <f t="shared" ref="D3:D6" si="1">E3*6</f>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D5" si="1">E4*6</f>
         <v>800.40311999999994</v>
       </c>
-      <c r="E3" s="104">
-        <f t="shared" ref="E3:E6" si="2">(C3*6.6)+(C3*6.6*0.0638)</f>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E9" si="2">(C4*6.6)+(C4*6.6*0.0638)</f>
         <v>133.40052</v>
       </c>
-      <c r="F3" s="104">
-        <f t="shared" ref="F3:F6" si="3">E3*4</f>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F5" si="3">E4*4</f>
         <v>533.60208</v>
       </c>
-      <c r="G3" s="104">
-        <f t="shared" ref="G3:G6" si="4">E3*2</f>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G6" si="4">E4*2</f>
         <v>266.80104</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="str">
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="107" t="str">
         <f>'Transfer  Voucher'!B12</f>
         <v>Louvre (todos)</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B5" s="12">
         <f>'Transfer  Voucher'!F12</f>
         <v>150</v>
       </c>
-      <c r="C4" s="103">
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D5" s="9">
         <f t="shared" si="1"/>
         <v>1053.1619999999998</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E5" s="9">
         <f t="shared" si="2"/>
         <v>175.52699999999999</v>
       </c>
-      <c r="F4" s="104">
+      <c r="F5" s="9">
         <f t="shared" si="3"/>
         <v>702.10799999999995</v>
       </c>
-      <c r="G4" s="104">
+      <c r="G5" s="9">
         <f t="shared" si="4"/>
         <v>351.05399999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="str">
+      <c r="H5" s="111">
+        <f>F5</f>
+        <v>702.10799999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="str">
         <f>'Transfer  Voucher'!B13</f>
-        <v>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris (3 pessoas)
-Disney</v>
-      </c>
-      <c r="B5" s="103">
+        <v>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris (3 pessoas) + 
+Disney 3 pessoas - Tirza irá comprar</v>
+      </c>
+      <c r="B6" s="12">
         <f>'Transfer  Voucher'!F13</f>
         <v>390</v>
       </c>
-      <c r="C5" s="103">
-        <f>B5/3</f>
+      <c r="C6" s="12">
+        <f>B6/3</f>
         <v>130</v>
       </c>
-      <c r="D5" s="104">
-        <f>E5*3</f>
+      <c r="D6" s="9">
+        <f>E6*3</f>
         <v>2738.2212</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E6" s="9">
         <f t="shared" si="2"/>
         <v>912.74040000000002</v>
       </c>
-      <c r="F5" s="104">
-        <f>E5*1</f>
+      <c r="F6" s="9">
+        <f>E6*1</f>
         <v>912.74040000000002</v>
       </c>
-      <c r="G5" s="104">
+      <c r="G6" s="9">
         <f t="shared" si="4"/>
         <v>1825.4808</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="str">
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="107" t="str">
         <f>'Transfer  Voucher'!B14</f>
         <v>Paris: Torre Eiffel 2º andar (4 pessoas)</v>
       </c>
-      <c r="B6" s="103">
+      <c r="B7" s="12">
         <f>'Transfer  Voucher'!F14</f>
         <v>260</v>
       </c>
-      <c r="C6" s="103">
-        <f>B6/4</f>
+      <c r="C7" s="12">
+        <f>B7/4</f>
         <v>65</v>
       </c>
-      <c r="D6" s="104">
-        <f>E6*4</f>
+      <c r="D7" s="9">
+        <f>E7*4</f>
         <v>1825.4808</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E7" s="9">
         <f t="shared" si="2"/>
         <v>456.37020000000001</v>
       </c>
-      <c r="F6" s="104">
-        <f>E6*4</f>
+      <c r="F7" s="9">
+        <f>E7*4</f>
         <v>1825.4808</v>
       </c>
-      <c r="G6" s="104">
-        <f>E6*0</f>
+      <c r="G7" s="9">
+        <f>E7*0</f>
         <v>0</v>
       </c>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="str">
+        <f>Passagens!D21</f>
+        <v>Valencia - Madrid (TREM)</v>
+      </c>
+      <c r="B9" s="36">
+        <f>Passagens!I22</f>
+        <v>133.44</v>
+      </c>
+      <c r="C9" s="84">
+        <f>B9/6</f>
+        <v>22.24</v>
+      </c>
+      <c r="D9" s="85">
+        <f>E9*6</f>
+        <v>936.89291519999995</v>
+      </c>
+      <c r="E9" s="85">
+        <f t="shared" si="2"/>
+        <v>156.14881919999999</v>
+      </c>
+      <c r="F9" s="85">
+        <f>E9*4</f>
+        <v>624.59527679999997</v>
+      </c>
+      <c r="G9" s="85">
+        <f t="shared" ref="G9" si="5">E9*2</f>
+        <v>312.29763839999998</v>
+      </c>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="85">
+        <f>SUM(F3:F7,F9)</f>
+        <v>5934.374175847619</v>
+      </c>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="112">
+        <f>SUM(H3:H7,H9)</f>
+        <v>702.10799999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="85">
+        <f>F10-F11</f>
+        <v>5232.2661758476188</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/HospedagemV1.xlsx
+++ b/HospedagemV1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="174">
   <si>
     <t>Período</t>
   </si>
@@ -464,9 +464,6 @@
   <si>
     <t>Madrid / Valencia
 Madrid / Barcelona</t>
-  </si>
-  <si>
-    <t>Valencia/barcelona</t>
   </si>
   <si>
     <t>Lisboa - Portugal</t>
@@ -515,31 +512,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Thiago, Ingrid, Tarcisio e Tirza - Estádio do Real Madrid - Santiago Bernabeu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A DEFINIR: 
-- I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nicialmente eu e Ana ficaremos em Madrid para ir a Toledo e de noite pegamos o trem para Valencia
-- TIRZA: verificar se seguem a barcelona</t>
     </r>
   </si>
   <si>
@@ -634,6 +606,15 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t xml:space="preserve">A DEFINIR: </t>
+  </si>
+  <si>
+    <t>Retorno de Barcelona para Valencia</t>
+  </si>
+  <si>
+    <t>Barcelona/Valencia</t>
+  </si>
 </sst>
 </file>
 
@@ -646,7 +627,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,6 +735,22 @@
       <i/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -939,7 +936,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1172,36 +1169,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1229,28 +1245,42 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1538,8 +1568,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="A11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,23 +1587,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1738,70 +1768,70 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="113">
         <f t="shared" si="0"/>
         <v>45924</v>
       </c>
-      <c r="B7" s="45">
-        <v>45773</v>
-      </c>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="113">
+        <v>45926</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="116">
         <v>2182.02</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="117">
         <v>362.88</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="47" t="s">
+      <c r="H7" s="119"/>
+      <c r="I7" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="121" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="113">
         <f t="shared" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="B8" s="45">
+        <v>45926</v>
+      </c>
+      <c r="B8" s="113">
         <v>45928</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="116">
         <v>1683.66</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="117">
         <v>280</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="47" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="121" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1940,7 +1970,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,16 +2012,16 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2029,10 +2059,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="96" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="32"/>
@@ -2062,8 +2092,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="91"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="33"/>
       <c r="D5" s="7" t="s">
         <v>70</v>
@@ -2091,8 +2121,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="91"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7" t="s">
         <v>71</v>
@@ -2120,10 +2150,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="33"/>
       <c r="D7" s="7" t="s">
         <v>69</v>
@@ -2151,8 +2181,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="33"/>
       <c r="D8" s="7" t="s">
         <v>70</v>
@@ -2180,8 +2210,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="33"/>
       <c r="D9" s="7" t="s">
         <v>71</v>
@@ -2209,10 +2239,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="33"/>
       <c r="D10" s="7" t="s">
         <v>69</v>
@@ -2240,8 +2270,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="91"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="33"/>
       <c r="D11" s="7" t="s">
         <v>70</v>
@@ -2269,8 +2299,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="33"/>
       <c r="D12" s="7" t="s">
         <v>71</v>
@@ -2298,10 +2328,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="33"/>
       <c r="D13" s="7" t="s">
         <v>69</v>
@@ -2329,8 +2359,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="91"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="33"/>
       <c r="D14" s="7" t="s">
         <v>70</v>
@@ -2358,8 +2388,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="34"/>
       <c r="D15" s="7" t="s">
         <v>71</v>
@@ -2390,24 +2420,24 @@
       <c r="A17" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="95" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -2428,21 +2458,21 @@
       <c r="H18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="96">
+      <c r="I18" s="103">
         <v>1231.8800000000001</v>
       </c>
-      <c r="J18" s="98">
+      <c r="J18" s="105">
         <f>(I18*6.237)+(I18*6.237)*1.1%</f>
         <v>7767.7511511600014</v>
       </c>
-      <c r="K18" s="100">
+      <c r="K18" s="107">
         <f>J18/6</f>
         <v>1294.6251918600003</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="36" t="s">
         <v>117</v>
       </c>
@@ -2461,9 +2491,9 @@
       <c r="H19" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="97"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="101"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="108"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" s="28"/>
@@ -2474,16 +2504,16 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -2621,6 +2651,11 @@
     <sortCondition ref="E22:E25"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="B18:B19"/>
@@ -2629,11 +2664,6 @@
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2643,7 +2673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2763,7 +2793,7 @@
         <v>136</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
@@ -2839,7 +2869,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -2853,23 +2883,21 @@
         <v>141</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="73">
         <f t="shared" si="0"/>
         <v>45925</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>150</v>
+      <c r="B15" s="66"/>
+      <c r="C15" s="122" t="s">
+        <v>171</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="62" t="s">
@@ -2882,9 +2910,11 @@
         <v>45926</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="66"/>
+        <v>173</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" s="62"/>
       <c r="E16" s="62" t="s">
         <v>33</v>
@@ -2904,13 +2934,13 @@
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
     </row>
-    <row r="18" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>45928</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>44</v>
@@ -2924,7 +2954,7 @@
         <v>45929</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="66" t="s">
         <v>45</v>
@@ -2938,7 +2968,7 @@
         <v>45930</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>46</v>
@@ -2952,7 +2982,7 @@
         <v>45931</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>47</v>
@@ -2966,7 +2996,7 @@
         <v>45932</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="62"/>
@@ -2978,7 +3008,7 @@
         <v>45933</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="62"/>
@@ -3219,17 +3249,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
       <c r="J1" s="23" t="s">
         <v>84</v>
       </c>
@@ -3242,17 +3272,17 @@
         <v>77</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3288,10 +3318,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="96" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3303,7 +3333,7 @@
       <c r="E4" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="110" t="s">
         <v>115</v>
       </c>
       <c r="G4" s="15">
@@ -3325,8 +3355,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="92"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
@@ -3336,7 +3366,7 @@
       <c r="E5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="15">
         <v>0.5625</v>
       </c>
@@ -3357,19 +3387,19 @@
       <c r="K6" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
+      <c r="A9" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3412,13 +3442,13 @@
         <v>45915</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="12">
         <v>19</v>
@@ -3452,7 +3482,7 @@
         <v>45917</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>8</v>
@@ -3486,7 +3516,7 @@
         <v>74</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3494,13 +3524,13 @@
         <v>45918</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E13" s="12">
         <v>130</v>
@@ -3534,7 +3564,7 @@
         <v>45919</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>8</v>
@@ -3574,7 +3604,7 @@
         <v>45920</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="82"/>
@@ -3626,10 +3656,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3993,7 +4023,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,46 +4038,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="A1" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="108" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="108" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="109" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="110" t="s">
-        <v>168</v>
+      <c r="F2" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
-        <v>157</v>
+      <c r="A3" s="87" t="s">
+        <v>155</v>
       </c>
       <c r="B3" s="84">
         <f>'Transfer  Voucher'!I4*2</f>
@@ -4073,10 +4103,10 @@
         <f>E3*2</f>
         <v>667.92380952380961</v>
       </c>
-      <c r="H3" s="105"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="str">
+      <c r="A4" s="87" t="str">
         <f>'Transfer  Voucher'!B11</f>
         <v>Paris: Cruzeiro de 1 hora no Sena com partida da Torre Eiffel (todos)</v>
       </c>
@@ -4107,7 +4137,7 @@
       <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="str">
+      <c r="A5" s="87" t="str">
         <f>'Transfer  Voucher'!B12</f>
         <v>Louvre (todos)</v>
       </c>
@@ -4135,13 +4165,13 @@
         <f t="shared" si="4"/>
         <v>351.05399999999997</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="91">
         <f>F5</f>
         <v>702.10799999999995</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="str">
+      <c r="A6" s="87" t="str">
         <f>'Transfer  Voucher'!B13</f>
         <v>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris (3 pessoas) + 
 Disney 3 pessoas - Tirza irá comprar</v>
@@ -4173,7 +4203,7 @@
       <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="str">
+      <c r="A7" s="87" t="str">
         <f>'Transfer  Voucher'!B14</f>
         <v>Paris: Torre Eiffel 2º andar (4 pessoas)</v>
       </c>
@@ -4204,16 +4234,16 @@
       <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
+      <c r="A8" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="str">
@@ -4248,7 +4278,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" s="85">
         <f>SUM(F3:F7,F9)</f>
@@ -4258,16 +4288,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="112">
+        <v>167</v>
+      </c>
+      <c r="F11" s="92">
         <f>SUM(H3:H7,H9)</f>
         <v>702.10799999999995</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E12" s="83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F12" s="85">
         <f>F10-F11</f>

--- a/HospedagemV1.xlsx
+++ b/HospedagemV1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arquivos Pessoais\Viagens\202509_Espanha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arquivos Pessoais\Viagens\20250912 - Valencia_Lisboa\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F2293E-770F-4618-AFFC-228CBA01D883}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hospedagem" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hospedagem!$A$1:$I$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Transfer  Voucher'!$A$1:$K$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="167">
   <si>
     <t>Período</t>
   </si>
@@ -109,9 +110,6 @@
     <t>Estrada Marginal Sul, 2520-227 Peniche, Portugal</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>Lisboa - Brasilia</t>
   </si>
   <si>
@@ -124,21 +122,6 @@
     <t>ingresso</t>
   </si>
   <si>
-    <t>duração</t>
-  </si>
-  <si>
-    <t>Manha</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>2:30h</t>
-  </si>
-  <si>
     <t>Site de consulta de passagens aéreas</t>
   </si>
   <si>
@@ -151,24 +134,9 @@
     <t>Brasilia -lisboa -valencia</t>
   </si>
   <si>
-    <t>valencia</t>
-  </si>
-  <si>
     <t>oceonário museu ciencia</t>
   </si>
   <si>
-    <t>valencia para paris</t>
-  </si>
-  <si>
-    <t>paris – louvre, jardin du palais royal,  61  e 93 rue de la verrerie brechós com roupas há 1 euro , outro em 21 rue sain denis fica há 500m</t>
-  </si>
-  <si>
-    <t>paris – igreja de sacre couer, muro eu te amo,  igreja de saint jean de montmatre, rue lepic, molin rouge, igreja de la sainr trinite,  galeria Lafaiete, palais garnier 9casa de opera ) igreja de Madeleine metro saint ambroise – igreja de saint ambroise próximo ao hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">–  madrid - fonte das civeles, palácio das cibeles, fonte de netuno, museu do prado, igreja de san jeronimo el real , jardim botonico, basílica de jesus de medinaceli  , estação de atocha. </t>
-  </si>
-  <si>
     <t>volta paa Lisboa 12:oo, cehga as 2h. tarde torre de belem, mosteiro dos geronimos, pastel, igreja de santa maria de belem. Padrão do descobrimento</t>
   </si>
   <si>
@@ -179,9 +147,6 @@
   </si>
   <si>
     <t>parque D. Carlos</t>
-  </si>
-  <si>
-    <t>tarde – torre Eiffel, campo de marte,  passeio pelo sena (25 euros)</t>
   </si>
   <si>
     <t xml:space="preserve">  Praia de Valencia a Tarde</t>
@@ -444,28 +409,9 @@
     <t>13:00h / 11:00h</t>
   </si>
   <si>
-    <t>– paris – notre dame, panteon, jardim de Luxemburgo, sorbone, hotel des invalides, ponte alexandew 3, place de la concorde, petit palais, grand palais, champs elysees, arc do triumphe</t>
-  </si>
-  <si>
     <t>Paris - França</t>
   </si>
   <si>
-    <t>Paris - França (manhã)</t>
-  </si>
-  <si>
-    <t>manha  e  aeroporto (voo sai as 15:15) a noite em Valencia</t>
-  </si>
-  <si>
-    <t>templo de debot, mirador, plaza espanha,  palacio real de madrid, catedral de almudena, basílica de san Francisco el grande , puerta de toledo</t>
-  </si>
-  <si>
-    <t>Pegar o trem cedo em Valencia para Madrid</t>
-  </si>
-  <si>
-    <t>Madrid / Valencia
-Madrid / Barcelona</t>
-  </si>
-  <si>
     <t>Lisboa - Portugal</t>
   </si>
   <si>
@@ -479,40 +425,6 @@
   </si>
   <si>
     <t>Freeport</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jardim de monet – giverny (15 euros de tranpoerw e 9 euros entrada).  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thiago, Ingrid e Tirza - Disney</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">plaza maior mercado de san miguel, museu arquiologico, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thiago, Ingrid, Tarcisio e Tirza - Estádio do Real Madrid - Santiago Bernabeu</t>
-    </r>
   </si>
   <si>
     <r>
@@ -607,19 +519,339 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">A DEFINIR: </t>
-  </si>
-  <si>
-    <t>Retorno de Barcelona para Valencia</t>
-  </si>
-  <si>
-    <t>Barcelona/Valencia</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ana: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Madrid / Valencia
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TIRZA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Madrid / Barcelona</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TIRZA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Barcelona/Valencia</t>
+    </r>
+  </si>
+  <si>
+    <t>Retorno de Barcelona para Valencia - Tirza</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – notre dame, panteon, jardim de Luxemburgo, sorbone, hotel des invalides, ponte alexandew 3, place de la concorde, petit palais, grand palais, champs elysees, arc do triumphe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – louvre, jardin du palais royal,  61  e 93 rue de la verrerie brechós com roupas há 1 euro , outro em 21 rue sain denis fica há 500m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eu, Ana e Tarcisio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jardim de monet – giverny (15 euros de tranpoerw e 9 euros entrada).  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thiago, Ingrid e Tirza - Disney</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – igreja de sacre couer, muro eu te amo,  igreja de saint jean de montmatre, rue lepic, molin rouge, igreja de la sainr trinite,  galeria Lafaiete, palais garnier 9casa de opera ) igreja de Madeleine metro saint ambroise – igreja de saint ambroise próximo ao hotel</t>
+    </r>
+  </si>
+  <si>
+    <t>Pegar o trem cedo em Valencia para Madrid 
+(Estação Valencia-Joaquín Sorolla - 08:00)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Em Madrid: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>templo de debot, mirador, plaza espanha,  palacio real de madrid, catedral de almudena, basílica de san Francisco el grande , puerta de toledo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Madrid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - fonte das civeles, palácio das cibeles, fonte de netuno, museu do prado, igreja de san jeronimo el real , jardim botonico, basílica de jesus de medinaceli  , estação de atocha. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plaza maior mercado de san miguel, museu arquiologico, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thiago, Ingrid, Tarcisio e Tirza - Estádio do Real Madrid - Santiago Bernabeu (https://www.ticket-madrid.com/pt/santiago-bernabeu/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Paris - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tarde – torre Eiffel, campo de marte,  passeio pelo sena (25 euros)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pela manha ainda em Paris. Voo sai as 15:15. De noite em Valencia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Paris - França (manhã) / Valencia - (a tarde)
+ORY to VLC - Booking code: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEU7TF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+15:15h / 17:45h
+Voo: VY8165</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valencia para Paris
+VLC to ORY - Booking code: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEU7TF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+07:25h / 09:35h
+Voo: VY8162</t>
+    </r>
+  </si>
+  <si>
+    <t>Livre escolha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -627,7 +859,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,14 +948,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="14"/>
       <color theme="0"/>
@@ -756,7 +980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,12 +1008,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,17 +1220,17 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,7 +1254,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,9 +1340,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1133,16 +1348,13 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1151,16 +1363,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1178,20 +1387,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1206,16 +1451,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1236,7 +1478,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,40 +1487,16 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1562,14 +1780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="A11:K11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,23 +1805,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="A1" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -1629,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1643,7 +1861,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E3" s="48">
         <v>2934.38</v>
@@ -1652,17 +1870,17 @@
         <v>488</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="47" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,7 +1903,7 @@
         <v>791.97</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10" t="s">
@@ -1695,7 +1913,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="54" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1710,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E5" s="48">
         <v>1236</v>
@@ -1720,17 +1938,17 @@
         <v>187.27272727272728</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H5" s="51"/>
       <c r="I5" s="47" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1754,7 +1972,7 @@
         <v>430.63</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="10" t="s">
@@ -1764,75 +1982,75 @@
         <v>19</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="113">
+      <c r="A7" s="90">
         <f t="shared" si="0"/>
         <v>45924</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="90">
         <v>45926</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="116">
+      <c r="D7" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="93">
         <v>2182.02</v>
       </c>
-      <c r="F7" s="117">
+      <c r="F7" s="94">
         <v>362.88</v>
       </c>
-      <c r="G7" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="119" t="s">
+      <c r="G7" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="121" t="s">
-        <v>53</v>
+      <c r="K7" s="98" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="113">
+      <c r="A8" s="90">
         <f t="shared" si="0"/>
         <v>45926</v>
       </c>
-      <c r="B8" s="113">
+      <c r="B8" s="90">
         <v>45928</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="116">
+      <c r="D8" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="93">
         <v>1683.66</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="94">
         <v>280</v>
       </c>
-      <c r="G8" s="118" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="119" t="s">
+      <c r="G8" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="121" t="s">
-        <v>53</v>
+      <c r="K8" s="98" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1847,7 +2065,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E9" s="13">
         <v>2978</v>
@@ -1856,17 +2074,17 @@
         <v>492</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1890,7 +2108,7 @@
         <v>205.8</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
@@ -1900,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="54" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1925,17 +2143,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="47" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="53" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1966,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1989,7 +2207,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2000,7 +2218,7 @@
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K1" s="23">
         <v>6.2370000000000001</v>
@@ -2008,66 +2226,66 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="D2" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>104</v>
+      <c r="A4" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>92</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E4" s="7">
         <v>45687</v>
@@ -2076,27 +2294,27 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="33"/>
       <c r="D5" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7">
         <v>45928</v>
@@ -2108,24 +2326,24 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="97"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E6" s="7">
         <v>45934</v>
@@ -2137,26 +2355,26 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="33"/>
       <c r="D7" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E7" s="7">
         <v>45884</v>
@@ -2165,27 +2383,27 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="33"/>
       <c r="D8" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7">
         <v>45928</v>
@@ -2197,24 +2415,24 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="33"/>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7">
         <v>45934</v>
@@ -2226,26 +2444,26 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="97"/>
+      <c r="A10" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="106"/>
       <c r="C10" s="33"/>
       <c r="D10" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7">
         <v>45912</v>
@@ -2254,27 +2472,27 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="33"/>
       <c r="D11" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E11" s="7">
         <v>45928</v>
@@ -2286,24 +2504,24 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="33"/>
       <c r="D12" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7">
         <v>45934</v>
@@ -2315,26 +2533,26 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="97"/>
+      <c r="A13" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="106"/>
       <c r="C13" s="33"/>
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7">
         <v>45912</v>
@@ -2343,27 +2561,27 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="33"/>
       <c r="D14" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E14" s="7">
         <v>45928</v>
@@ -2375,24 +2593,24 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="34"/>
       <c r="D15" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7">
         <v>45934</v>
@@ -2404,47 +2622,47 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="95" t="s">
-        <v>105</v>
+      <c r="A18" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="104" t="s">
+        <v>93</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E18" s="7">
         <v>45915</v>
@@ -2456,28 +2674,28 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="103">
+        <v>62</v>
+      </c>
+      <c r="I18" s="111">
         <v>1231.8800000000001</v>
       </c>
-      <c r="J18" s="105">
+      <c r="J18" s="113">
         <f>(I18*6.237)+(I18*6.237)*1.1%</f>
         <v>7767.7511511600014</v>
       </c>
-      <c r="K18" s="107">
+      <c r="K18" s="115">
         <f>J18/6</f>
         <v>1294.6251918600003</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="36" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E19" s="7">
         <v>45920</v>
@@ -2489,40 +2707,40 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="104"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="108"/>
+        <v>62</v>
+      </c>
+      <c r="I19" s="112"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="116"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
+      <c r="D21" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E22" s="7">
         <v>45921</v>
@@ -2530,7 +2748,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="15"/>
       <c r="H22" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I22" s="20">
         <v>133.44</v>
@@ -2544,17 +2762,17 @@
         <v>152.77312079999999</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E23" s="7">
         <v>45924</v>
@@ -2562,7 +2780,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="15"/>
       <c r="H23" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I23" s="20">
         <v>0</v>
@@ -2576,17 +2794,17 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E24" s="7">
         <v>45924</v>
@@ -2594,7 +2812,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="15"/>
       <c r="H24" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I24" s="20">
         <v>0</v>
@@ -2608,17 +2826,17 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E25" s="7">
         <v>45926</v>
@@ -2626,7 +2844,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="15"/>
       <c r="H25" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I25" s="20">
         <v>0</v>
@@ -2640,22 +2858,17 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="56"/>
     </row>
   </sheetData>
-  <sortState ref="A22:K25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:K25">
     <sortCondition ref="E22:E25"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="B18:B19"/>
@@ -2664,23 +2877,28 @@
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="60" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" style="60" customWidth="1"/>
     <col min="4" max="4" width="43.85546875" style="61" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="61" bestFit="1" customWidth="1"/>
@@ -2689,29 +2907,27 @@
     <col min="8" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>29</v>
-      </c>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="62"/>
     </row>
@@ -2723,33 +2939,31 @@
         <v>7</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D3" s="64"/>
-      <c r="E3" s="62" t="s">
-        <v>30</v>
-      </c>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="63">
         <v>45914</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="62"/>
       <c r="E4" s="64"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <v>45915</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>40</v>
+      <c r="B5" s="66" t="s">
+        <v>165</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
@@ -2760,10 +2974,10 @@
         <v>45916</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -2774,29 +2988,27 @@
         <v>45917</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="D7" s="62"/>
-      <c r="E7" s="62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="70" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="E7" s="62"/>
+    </row>
+    <row r="8" spans="1:5" s="69" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A8" s="67">
         <f t="shared" si="0"/>
         <v>45918</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+        <v>123</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
     </row>
     <row r="9" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A9" s="67">
@@ -2804,45 +3016,41 @@
         <v>45919</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="D9" s="62"/>
-      <c r="E9" s="71">
-        <v>0.14583333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E9" s="70"/>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="63">
         <f t="shared" si="0"/>
         <v>45920</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
     </row>
-    <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="63">
         <f t="shared" si="0"/>
         <v>45921</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>140</v>
+      <c r="B11" s="100" t="s">
+        <v>158</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D11" s="62"/>
-      <c r="E11" s="71">
-        <v>9.0277777777777776E-2</v>
-      </c>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
@@ -2853,14 +3061,12 @@
         <v>10</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="D12" s="62"/>
-      <c r="E12" s="71">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E12" s="70"/>
+    </row>
+    <row r="13" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
         <f t="shared" si="0"/>
         <v>45923</v>
@@ -2869,56 +3075,50 @@
         <v>10</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
     </row>
-    <row r="14" spans="1:5" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+    <row r="14" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71">
         <f t="shared" si="0"/>
         <v>45924</v>
       </c>
-      <c r="B14" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="62" t="s">
-        <v>32</v>
-      </c>
+      <c r="B14" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+      <c r="A15" s="71">
         <f t="shared" si="0"/>
         <v>45925</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="122" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="62" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="123"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="71">
         <f t="shared" si="0"/>
         <v>45926</v>
       </c>
-      <c r="B16" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62" t="s">
-        <v>33</v>
-      </c>
+      <c r="B16" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="62"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="63">
@@ -2926,10 +3126,10 @@
         <v>45927</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -2940,10 +3140,10 @@
         <v>45928</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
@@ -2954,10 +3154,10 @@
         <v>45929</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
@@ -2968,10 +3168,10 @@
         <v>45930</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -2982,10 +3182,10 @@
         <v>45931</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
@@ -2995,8 +3195,8 @@
         <f t="shared" si="0"/>
         <v>45932</v>
       </c>
-      <c r="B22" s="79" t="s">
-        <v>145</v>
+      <c r="B22" s="76" t="s">
+        <v>127</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="62"/>
@@ -3007,22 +3207,20 @@
         <f t="shared" si="0"/>
         <v>45933</v>
       </c>
-      <c r="B23" s="79" t="s">
-        <v>146</v>
+      <c r="B23" s="76" t="s">
+        <v>128</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="62"/>
-      <c r="E23" s="62" t="s">
-        <v>24</v>
-      </c>
+      <c r="E23" s="62"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>45934</v>
       </c>
-      <c r="B24" s="79" t="s">
-        <v>25</v>
+      <c r="B24" s="76" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="62"/>
@@ -3030,53 +3228,50 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="67"/>
-      <c r="B25" s="79"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="66"/>
       <c r="D25" s="62"/>
-      <c r="E25" s="71">
-        <v>0.10416666666666667</v>
-      </c>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="67"/>
-      <c r="B26" s="79"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="66"/>
       <c r="D26" s="62"/>
-      <c r="E26" s="62" t="s">
-        <v>24</v>
-      </c>
+      <c r="E26" s="62"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="66"/>
       <c r="D27" s="62"/>
-      <c r="E27" s="71">
-        <v>0.1111111111111111</v>
-      </c>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="71"/>
       <c r="C28" s="66"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>35</v>
+      <c r="A30" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3092,13 +3287,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -3109,10 +3304,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C2" s="7">
         <v>45921</v>
@@ -3120,7 +3315,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="15"/>
       <c r="F2" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3136,10 +3331,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C3" s="7">
         <v>45924</v>
@@ -3147,7 +3342,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="15"/>
       <c r="F3" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3163,10 +3358,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C4" s="7">
         <v>45924</v>
@@ -3174,7 +3369,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="15"/>
       <c r="F4" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3190,10 +3385,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C5" s="7">
         <v>45926</v>
@@ -3201,7 +3396,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="15"/>
       <c r="F5" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G5" s="20">
         <v>0</v>
@@ -3222,7 +3417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3249,19 +3444,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="A1" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
       <c r="J1" s="23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K1" s="23">
         <v>6.2370000000000001</v>
@@ -3269,60 +3464,60 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="C2" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>107</v>
+      <c r="A4" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
@@ -3331,16 +3526,16 @@
         <v>45915</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="110" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="F4" s="118" t="s">
+        <v>103</v>
       </c>
       <c r="G4" s="15">
         <v>0.39930555555555558</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I4" s="12">
         <f>J4/K1</f>
@@ -3355,18 +3550,18 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="98"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7">
         <v>45920</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="111"/>
+        <v>101</v>
+      </c>
+      <c r="F5" s="119"/>
       <c r="G5" s="15">
         <v>0.5625</v>
       </c>
@@ -3387,53 +3582,53 @@
       <c r="K6" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
+      <c r="A9" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L10" s="6"/>
     </row>
@@ -3442,13 +3637,13 @@
         <v>45915</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E11" s="12">
         <v>19</v>
@@ -3470,10 +3665,10 @@
         <v>800.40311999999994</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L11" s="6"/>
     </row>
@@ -3482,12 +3677,12 @@
         <v>45917</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="79">
         <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="12">
@@ -3510,13 +3705,13 @@
         <v>1053.162</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3524,13 +3719,13 @@
         <v>45918</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E13" s="12">
         <v>130</v>
@@ -3552,10 +3747,10 @@
         <v>2738.2212</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K13" s="44" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L13" s="6"/>
     </row>
@@ -3564,12 +3759,12 @@
         <v>45919</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="79">
         <v>0.54166666666666663</v>
       </c>
       <c r="E14" s="12">
@@ -3592,10 +3787,10 @@
         <v>1825.4808</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K14" s="44" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L14" s="6"/>
     </row>
@@ -3604,10 +3799,10 @@
         <v>45920</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="82"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="16"/>
@@ -3634,7 +3829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3656,10 +3851,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3673,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -3685,7 +3880,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3696,10 +3891,10 @@
         <v>45915</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E2" s="9">
         <v>2934.38</v>
@@ -3708,17 +3903,17 @@
         <v>488</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3741,7 +3936,7 @@
         <v>791.97</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="10" t="s">
@@ -3751,7 +3946,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3763,10 +3958,10 @@
         <v>45921</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9">
         <v>841.83</v>
@@ -3775,17 +3970,17 @@
         <v>140</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3809,7 +4004,7 @@
         <v>430.63</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="10" t="s">
@@ -3819,7 +4014,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3834,7 +4029,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E6" s="9">
         <v>2182.02</v>
@@ -3843,17 +4038,17 @@
         <v>362.88</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3865,10 +4060,10 @@
         <v>45928</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9">
         <v>1683.66</v>
@@ -3877,17 +4072,17 @@
         <v>280</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3902,7 +4097,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E8" s="13">
         <v>2978</v>
@@ -3911,17 +4106,17 @@
         <v>492</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3945,7 +4140,7 @@
         <v>205.8</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
@@ -3955,7 +4150,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3980,17 +4175,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4019,10 +4214,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -4038,75 +4233,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="A1" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="2" spans="1:8" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="90" t="s">
-        <v>166</v>
+      <c r="A2" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="84">
+      <c r="A3" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="81">
         <f>'Transfer  Voucher'!I4*2</f>
         <v>285.39361872695207</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="81">
         <f>B3/6</f>
         <v>47.565603121158681</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="82">
         <f>E3*6</f>
         <v>2003.7714285714287</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="82">
         <f>(C3*6.6)+(C3*6.6*0.0638)</f>
         <v>333.9619047619048</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="82">
         <f>E3*4</f>
         <v>1335.8476190476192</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="82">
         <f>E3*2</f>
         <v>667.92380952380961</v>
       </c>
-      <c r="H3" s="86"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="str">
+      <c r="A4" s="84" t="str">
         <f>'Transfer  Voucher'!B11</f>
         <v>Paris: Cruzeiro de 1 hora no Sena com partida da Torre Eiffel (todos)</v>
       </c>
@@ -4137,7 +4332,7 @@
       <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="str">
+      <c r="A5" s="84" t="str">
         <f>'Transfer  Voucher'!B12</f>
         <v>Louvre (todos)</v>
       </c>
@@ -4165,13 +4360,13 @@
         <f t="shared" si="4"/>
         <v>351.05399999999997</v>
       </c>
-      <c r="H5" s="91">
+      <c r="H5" s="88">
         <f>F5</f>
         <v>702.10799999999995</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="str">
+      <c r="A6" s="84" t="str">
         <f>'Transfer  Voucher'!B13</f>
         <v>Viagem de 1 dia a Mont-Saint-Michel a partir de Paris (3 pessoas) + 
 Disney 3 pessoas - Tirza irá comprar</v>
@@ -4203,7 +4398,7 @@
       <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="str">
+      <c r="A7" s="84" t="str">
         <f>'Transfer  Voucher'!B14</f>
         <v>Paris: Torre Eiffel 2º andar (4 pessoas)</v>
       </c>
@@ -4234,19 +4429,19 @@
       <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
+      <c r="A8" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="str">
+      <c r="A9" s="80" t="str">
         <f>Passagens!D21</f>
         <v>Valencia - Madrid (TREM)</v>
       </c>
@@ -4254,52 +4449,52 @@
         <f>Passagens!I22</f>
         <v>133.44</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="81">
         <f>B9/6</f>
         <v>22.24</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="82">
         <f>E9*6</f>
         <v>936.89291519999995</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="82">
         <f t="shared" si="2"/>
         <v>156.14881919999999</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="82">
         <f>E9*4</f>
         <v>624.59527679999997</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="82">
         <f t="shared" ref="G9" si="5">E9*2</f>
         <v>312.29763839999998</v>
       </c>
       <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="85">
+      <c r="E10" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="82">
         <f>SUM(F3:F7,F9)</f>
         <v>5934.374175847619</v>
       </c>
       <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="92">
+      <c r="E11" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="89">
         <f>SUM(H3:H7,H9)</f>
         <v>702.10799999999995</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="85">
+      <c r="E12" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="82">
         <f>F10-F11</f>
         <v>5232.2661758476188</v>
       </c>
